--- a/OneWay ANOVA.xlsx
+++ b/OneWay ANOVA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
   <si>
     <t>A</t>
   </si>
@@ -259,13 +259,80 @@
   </si>
   <si>
     <t>p&gt;0.05</t>
+  </si>
+  <si>
+    <t>Accept Ho</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Equal Variances</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pooled Variance</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here for (A vs B) (B vs C) &amp;(A vs C) it is much greater than the significance level. This means that A, B and C belong to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same population</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>p&lt;0.05</t>
+  </si>
+  <si>
+    <t>Fcal&gt;Fcri</t>
+  </si>
+  <si>
+    <t>Note :- If the p-value of  is less than the alpha level selected (alpha = 0.05). This means that groups A and B &amp; groups A and C have less than 5% chance of belonging to the same population.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,12 +387,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="14"/>
       <color theme="1"/>
@@ -333,8 +431,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="3ds"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,18 +486,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -741,28 +841,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,47 +858,44 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -842,64 +918,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,20 +1317,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:T55"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" style="2" customWidth="1"/>
@@ -1229,14 +1346,49 @@
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="18.75">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="1:20" ht="15.75">
+      <c r="I1" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="107"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="114" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="115" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="19.5" thickBot="1">
+      <c r="B2" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="I2" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="111"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="117" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="19.5" thickBot="1">
       <c r="B3" s="9"/>
@@ -1245,27 +1397,27 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="F4" s="32" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="F4" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
-      <c r="N4" s="32" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="91"/>
+      <c r="N4" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="34"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="91"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1">
       <c r="B5" s="15" t="s">
@@ -1277,7 +1429,7 @@
       <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -1292,10 +1444,10 @@
       <c r="J5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="34" t="s">
         <v>23</v>
       </c>
       <c r="O5" s="11" t="s">
@@ -1310,7 +1462,7 @@
       <c r="R5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1327,40 +1479,40 @@
       <c r="D6" s="5">
         <v>14</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="38">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="40">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="42">
         <v>1</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="38">
         <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="40">
         <v>4</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="42">
         <v>4</v>
       </c>
     </row>
@@ -1374,40 +1526,40 @@
       <c r="D7" s="5">
         <v>13</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="38">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="40">
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="42">
         <v>1</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="38">
         <v>1</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="40">
         <v>1</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="42">
         <v>1</v>
       </c>
     </row>
@@ -1424,45 +1576,45 @@
       <c r="D8" s="5">
         <v>17</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="38">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="40">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="42">
         <v>1</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="38">
         <v>9</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="40">
         <v>1</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="49">
+      <c r="S8" s="42">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="62">
+      <c r="A9" s="54">
         <f>15</f>
         <v>15</v>
       </c>
@@ -1475,40 +1627,40 @@
       <c r="D9" s="6">
         <v>7</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="38">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="40">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="42">
         <v>1</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="38">
         <v>1</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="40">
         <v>16</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S9" s="49">
+      <c r="S9" s="42">
         <v>25</v>
       </c>
     </row>
@@ -1522,40 +1674,40 @@
       <c r="D10" s="6">
         <v>9</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="38">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="40">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="42">
         <v>1</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="38">
         <v>4</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="40">
         <v>36</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="42">
         <v>9</v>
       </c>
     </row>
@@ -1563,16 +1715,16 @@
       <c r="B11" s="16"/>
       <c r="C11" s="21"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="45"/>
-      <c r="I11" s="47"/>
-      <c r="K11" s="49"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="51"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="38"/>
+      <c r="I11" s="40"/>
+      <c r="K11" s="42"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="44"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1">
       <c r="A12" s="14" t="s">
@@ -1590,44 +1742,44 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="46">
+      <c r="F12" s="36"/>
+      <c r="G12" s="39">
         <v>5</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="48">
+      <c r="H12" s="37"/>
+      <c r="I12" s="41">
         <v>0</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="50">
+      <c r="J12" s="37"/>
+      <c r="K12" s="43">
         <v>5</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="47">
         <f>SUM(G12:K12)</f>
         <v>10</v>
       </c>
-      <c r="N12" s="43"/>
-      <c r="O12" s="46">
+      <c r="N12" s="36"/>
+      <c r="O12" s="39">
         <f>SUM(O6:O10)</f>
         <v>16</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="48">
+      <c r="P12" s="37"/>
+      <c r="Q12" s="41">
         <f t="shared" ref="Q12:S12" si="1">SUM(Q6:Q10)</f>
         <v>58</v>
       </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="50">
+      <c r="R12" s="37"/>
+      <c r="S12" s="43">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="T12" s="55">
+      <c r="T12" s="48">
         <f>SUM(O12:S12)</f>
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -1641,7 +1793,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="19">
         <f>B12/5</f>
         <v>10</v>
@@ -1654,73 +1806,55 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="N14" s="72" t="s">
+      <c r="F14" s="35"/>
+      <c r="N14" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="74"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="66"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="25">
         <v>11</v>
       </c>
-      <c r="F15" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="101"/>
-      <c r="N15" s="38" t="s">
+      <c r="N15" s="31" t="s">
         <v>57</v>
       </c>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1">
+    <row r="16" spans="1:20">
       <c r="E16" s="3"/>
-      <c r="F16" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="104" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="105"/>
-      <c r="N16" s="75" t="s">
+      <c r="N16" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="71" t="s">
+      <c r="O16" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="71" t="s">
+      <c r="P16" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="Q16" s="71" t="s">
+      <c r="Q16" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="R16" s="71" t="s">
+      <c r="R16" s="63" t="s">
         <v>62</v>
       </c>
       <c r="T16" s="5"/>
     </row>
-    <row r="17" spans="3:20" ht="15" customHeight="1" thickBot="1">
+    <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="E17" s="1"/>
-      <c r="N17" s="76" t="s">
+      <c r="N17" s="68" t="s">
         <v>0</v>
       </c>
       <c r="O17" s="1">
@@ -1737,24 +1871,24 @@
       </c>
       <c r="T17" s="5"/>
     </row>
-    <row r="18" spans="3:20" ht="30.75" thickBot="1">
+    <row r="18" spans="1:20" ht="30.75" thickBot="1">
       <c r="E18" s="1"/>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="68" t="s">
+      <c r="G18" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H18" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="68" t="s">
+      <c r="I18" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="76" t="s">
+      <c r="N18" s="68" t="s">
         <v>1</v>
       </c>
       <c r="O18" s="1">
@@ -1771,135 +1905,139 @@
       </c>
       <c r="T18" s="5"/>
     </row>
-    <row r="19" spans="3:20" ht="45.75" thickBot="1">
+    <row r="19" spans="1:20" ht="45.75" thickBot="1">
       <c r="E19" s="1"/>
-      <c r="F19" s="63" t="s">
+      <c r="F19" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="61" t="s">
+      <c r="I19" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="83">
+      <c r="J19" s="74">
         <v>0.434</v>
       </c>
-      <c r="N19" s="77" t="s">
+      <c r="N19" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="O19" s="70">
+      <c r="O19" s="62">
         <v>5</v>
       </c>
-      <c r="P19" s="70">
+      <c r="P19" s="62">
         <v>60</v>
       </c>
-      <c r="Q19" s="70">
+      <c r="Q19" s="62">
         <v>12</v>
       </c>
-      <c r="R19" s="70">
+      <c r="R19" s="62">
         <v>16</v>
       </c>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="3:20" ht="30.75" thickBot="1">
+    <row r="20" spans="1:20" ht="30.75" thickBot="1">
       <c r="E20" s="1"/>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="N20" s="38" t="s">
+      <c r="J20" s="73"/>
+      <c r="N20" s="31" t="s">
         <v>63</v>
       </c>
       <c r="T20" s="5"/>
     </row>
-    <row r="21" spans="3:20" ht="15.75" thickBot="1">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1">
       <c r="E21" s="1"/>
-      <c r="N21" s="75" t="s">
+      <c r="N21" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="71" t="s">
+      <c r="O21" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="P21" s="71" t="s">
+      <c r="P21" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="71" t="s">
+      <c r="Q21" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="R21" s="71" t="s">
+      <c r="R21" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="S21" s="71" t="s">
+      <c r="S21" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="T21" s="78" t="s">
+      <c r="T21" s="70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="3:20">
-      <c r="F22" s="92" t="s">
+    <row r="22" spans="1:20">
+      <c r="F22" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="85"/>
-      <c r="H22" s="86">
+      <c r="G22" s="76"/>
+      <c r="H22" s="77">
         <v>0.434</v>
       </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="93" t="s">
+      <c r="J22" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="76" t="s">
+      <c r="K22" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="50">
         <v>10</v>
       </c>
-      <c r="P22" s="96">
+      <c r="P22" s="79">
         <v>2</v>
       </c>
       <c r="Q22" s="1">
         <v>5</v>
       </c>
-      <c r="R22" s="84">
+      <c r="R22" s="75">
         <v>0.43478260869565216</v>
       </c>
       <c r="S22" s="1">
         <v>0.65721009543858211</v>
       </c>
-      <c r="T22" s="79">
+      <c r="T22" s="71">
         <v>3.8852938347033836</v>
       </c>
     </row>
-    <row r="23" spans="3:20" ht="14.25" customHeight="1">
-      <c r="F23" s="87" t="s">
+    <row r="23" spans="1:20" ht="14.25" customHeight="1">
+      <c r="F23" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="82"/>
-      <c r="H23" s="88">
+      <c r="G23" s="83"/>
+      <c r="H23" s="86">
         <v>3.89</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="93"/>
-      <c r="N23" s="76" t="s">
+      <c r="J23" s="101"/>
+      <c r="K23" s="103"/>
+      <c r="N23" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="56">
+      <c r="O23" s="49">
         <v>138</v>
       </c>
-      <c r="P23" s="97">
+      <c r="P23" s="80">
         <v>12</v>
       </c>
       <c r="Q23" s="1">
@@ -1907,61 +2045,63 @@
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="79"/>
-    </row>
-    <row r="24" spans="3:20" ht="15.75" thickBot="1">
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
+      <c r="T23" s="71"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" thickBot="1">
+      <c r="F24" s="84"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="87"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="94" t="s">
+      <c r="J24" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="N24" s="76"/>
+      <c r="K24" s="103"/>
+      <c r="N24" s="68"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="79"/>
-    </row>
-    <row r="25" spans="3:20" ht="16.5" thickBot="1">
-      <c r="C25" s="31" t="s">
+      <c r="T24" s="71"/>
+    </row>
+    <row r="25" spans="1:20" ht="16.5" thickBot="1">
+      <c r="C25" s="27" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="N25" s="77" t="s">
+      <c r="N25" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="O25" s="70">
+      <c r="O25" s="62">
         <v>148</v>
       </c>
-      <c r="P25" s="70">
+      <c r="P25" s="62">
         <v>14</v>
       </c>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="80"/>
-    </row>
-    <row r="27" spans="3:20" ht="15" customHeight="1">
-      <c r="E27" s="95" t="s">
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="72"/>
+    </row>
+    <row r="27" spans="1:20" ht="15" customHeight="1">
+      <c r="E27" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-    </row>
-    <row r="28" spans="3:20">
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="3:20">
+      <c r="K28" s="96"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1969,113 +2109,488 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="3:20">
+    <row r="30" spans="1:20" ht="15.75" thickBot="1">
       <c r="E30" s="1"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="J30" s="97"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="66"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A32" s="31"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="67"/>
+      <c r="B33" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="1">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="1">
+        <v>12</v>
+      </c>
+      <c r="L34" s="1">
+        <v>10</v>
+      </c>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="1">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" s="1">
+        <v>16</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4</v>
+      </c>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+      <c r="L36" s="1">
+        <v>5</v>
+      </c>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="1">
+        <v>15.25</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="1">
+        <v>10</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" s="1">
+        <v>8</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-0.51987524491003634</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.40488816508945802</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.30861275381621633</v>
+      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="E41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.34808503051380757</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.1732967535682397</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.8595480333018273</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="E42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.8595480333018273</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1.8595480333018273</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="98">
+        <v>0.61722550763243267</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="E43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="98">
+        <v>0.69617006102761514</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K43" s="98">
+        <v>0.34659350713647941</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A44" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="62">
+        <v>2.3060041332991172</v>
+      </c>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="62">
+        <v>2.3060041332991172</v>
+      </c>
+      <c r="G44" s="62"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44" s="62">
+        <v>2.3060041332991172</v>
+      </c>
+      <c r="L44" s="62"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="118"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="2:5">
+    <row r="46" spans="1:17" ht="15" customHeight="1">
+      <c r="A46" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="100"/>
+      <c r="K46" s="100"/>
+      <c r="L46" s="100"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="99"/>
+      <c r="O46" s="99"/>
+      <c r="P46" s="99"/>
+      <c r="Q46" s="99"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="100"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+      <c r="Q47" s="99"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="99"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="99"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="99"/>
+      <c r="M49" s="99"/>
+      <c r="N49" s="99"/>
+      <c r="O49" s="99"/>
+      <c r="P49" s="99"/>
+      <c r="Q49" s="99"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="1:17">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="1:17">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="1:17">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="1:17">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="1:17">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
+  <mergeCells count="14">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="A46:M47"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="N4:S4"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
